--- a/Analysis_results.xlsx
+++ b/Analysis_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Query Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Query Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <col width="23" customWidth="1" min="4" max="4"/>
     <col width="69" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
     <col width="33" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,7 +613,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -732,17 +732,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1121,7 +1121,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1258,7 +1258,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1362,7 +1362,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1662,7 +1662,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>varchar(255)</t>
+          <t>varchar(128)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2379,7 +2379,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2478,7 +2478,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2577,7 +2577,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>varchar(255)</t>
+          <t>varchar(128)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2822,17 +2822,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>smallint(6)</t>
+          <t>smallint(5) unsigned</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3075,7 +3075,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3179,7 +3179,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>varchar(255)</t>
+          <t>varchar(128)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -3894,7 +3894,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4418,7 +4418,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>utf8mb4</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4816,7 +4816,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>on update CURRENT_TIMESTAMP</t>
+          <t>on update current_timestamp()</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
     </row>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>mediumtext</t>
         </is>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>film</t>
+          <t>film_actor</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8405,12 +8405,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>payment</t>
+          <t>rental</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>payment_id</t>
+          <t>rental_id</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8422,12 +8422,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>film_category</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>category_id</t>
+          <t>customer_id</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8439,12 +8439,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>actor</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>staff_id</t>
+          <t>actor_id</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8456,12 +8456,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>language</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>category_id</t>
+          <t>language_id</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8473,12 +8473,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>rental</t>
+          <t>film_category</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>rental_id</t>
+          <t>category_id</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8524,12 +8524,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>film_text</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>film_id</t>
+          <t>inventory_id</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8541,12 +8541,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>store_id</t>
+          <t>country_id</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8558,12 +8558,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>film_actor</t>
+          <t>store</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>film_id</t>
+          <t>store_id</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8575,12 +8575,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>film_category</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>country_id</t>
+          <t>film_id</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8592,12 +8592,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>inventory_id</t>
+          <t>address_id</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8609,12 +8609,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>customer_id</t>
+          <t>payment_id</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8626,12 +8626,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>actor</t>
+          <t>film</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>actor_id</t>
+          <t>film_id</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8643,12 +8643,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>category</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>language_id</t>
+          <t>category_id</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8660,12 +8660,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>film_text</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>address_id</t>
+          <t>film_id</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8677,12 +8677,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>film_category</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>film_id</t>
+          <t>staff_id</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>rental_date</t>
+          <t>inventory_id</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>inventory_id</t>
+          <t>rental_date</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
